--- a/teaching/traditional_assets/database/data/poland/poland_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AQ38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0969</v>
+        <v>-0.0774</v>
       </c>
       <c r="E2">
-        <v>-0.187</v>
+        <v>0.2965</v>
       </c>
       <c r="G2">
-        <v>0.2503278771217433</v>
+        <v>0.205151966069376</v>
       </c>
       <c r="H2">
-        <v>0.2475409215869253</v>
+        <v>0.2039891650108261</v>
       </c>
       <c r="I2">
-        <v>0.1340765214759515</v>
+        <v>0.1593572071389748</v>
       </c>
       <c r="J2">
-        <v>0.1259612757825226</v>
+        <v>0.1489363501288188</v>
       </c>
       <c r="K2">
-        <v>-59.41099999999999</v>
+        <v>-1.165999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1873029584604908</v>
+        <v>-0.00519473576348359</v>
       </c>
       <c r="M2">
-        <v>19.038</v>
+        <v>28.45463</v>
       </c>
       <c r="N2">
-        <v>0.05668146375012281</v>
+        <v>0.03956433476687259</v>
       </c>
       <c r="O2">
-        <v>-0.3204457087071418</v>
+        <v>-24.40362778730704</v>
       </c>
       <c r="P2">
-        <v>10.07</v>
+        <v>6.41663</v>
       </c>
       <c r="Q2">
-        <v>0.0299812133608434</v>
+        <v>0.008921911737919546</v>
       </c>
       <c r="R2">
-        <v>-0.1694972311524802</v>
+        <v>-5.503113207547172</v>
       </c>
       <c r="S2">
-        <v>8.968</v>
+        <v>22.038</v>
       </c>
       <c r="T2">
-        <v>0.4710578842315369</v>
+        <v>0.7744961013374625</v>
       </c>
       <c r="U2">
-        <v>67.542</v>
+        <v>126.747</v>
       </c>
       <c r="V2">
-        <v>0.2010914709849141</v>
+        <v>0.1762335598353168</v>
       </c>
       <c r="W2">
-        <v>-0.1131059245960503</v>
+        <v>-0.0206959233740474</v>
       </c>
       <c r="X2">
-        <v>0.05356114154148567</v>
+        <v>0.04055514923012928</v>
       </c>
       <c r="Y2">
-        <v>-0.1666670661375359</v>
+        <v>-0.06125107260417667</v>
       </c>
       <c r="Z2">
-        <v>0.4059990041765705</v>
+        <v>0.3719918129914898</v>
       </c>
       <c r="AA2">
-        <v>-0.02279874213836478</v>
+        <v>-0.01662860770524104</v>
       </c>
       <c r="AB2">
-        <v>0.05286723012628692</v>
+        <v>0.04025010510798448</v>
       </c>
       <c r="AC2">
-        <v>-0.07515488633376938</v>
+        <v>-0.05860028393415853</v>
       </c>
       <c r="AD2">
-        <v>147.34</v>
+        <v>132.799</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>147.34</v>
+        <v>132.799</v>
       </c>
       <c r="AG2">
-        <v>79.798</v>
+        <v>6.052000000000007</v>
       </c>
       <c r="AH2">
-        <v>0.3049147691409864</v>
+        <v>0.1558677367787248</v>
       </c>
       <c r="AI2">
-        <v>0.1957811513802611</v>
+        <v>0.1801502257999314</v>
       </c>
       <c r="AJ2">
-        <v>0.1919720935827269</v>
+        <v>0.008344697215171034</v>
       </c>
       <c r="AK2">
-        <v>0.116487818835005</v>
+        <v>0.009914647531986707</v>
       </c>
       <c r="AL2">
-        <v>10.526</v>
+        <v>7.797</v>
       </c>
       <c r="AM2">
-        <v>6.069999999999999</v>
+        <v>4.805999999999999</v>
       </c>
       <c r="AN2">
-        <v>2.793175355450237</v>
+        <v>3.283203125</v>
       </c>
       <c r="AO2">
-        <v>4.040281208436253</v>
+        <v>4.587533666794921</v>
       </c>
       <c r="AP2">
-        <v>1.512758293838863</v>
+        <v>0.1496242088607597</v>
       </c>
       <c r="AQ2">
-        <v>7.006260296540363</v>
+        <v>7.442571785268416</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GO Towarzystwo Funduszy Inwestycyjnych S.A. (WSE:GTF)</t>
+          <t>Black Pearl S.A. (WSE:BPC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,29 +724,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.285</v>
-      </c>
-      <c r="E3">
-        <v>-0.13</v>
-      </c>
-      <c r="G3">
-        <v>0.08429752066115703</v>
-      </c>
-      <c r="H3">
-        <v>0.08429752066115703</v>
-      </c>
-      <c r="I3">
-        <v>0.05388429752066116</v>
-      </c>
-      <c r="J3">
-        <v>0.04344471677895333</v>
-      </c>
       <c r="K3">
-        <v>0.541</v>
-      </c>
-      <c r="L3">
-        <v>0.04471074380165289</v>
+        <v>-1.83</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,7 +734,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,79 +743,52 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.13</v>
+        <v>66.3</v>
       </c>
       <c r="V3">
-        <v>0.9560185185185184</v>
-      </c>
-      <c r="W3">
-        <v>0.1369620253164557</v>
+        <v>1.284883720930232</v>
       </c>
       <c r="X3">
-        <v>0.05247426295910071</v>
-      </c>
-      <c r="Y3">
-        <v>0.084487762357355</v>
-      </c>
-      <c r="Z3">
-        <v>72.02380952380946</v>
-      </c>
-      <c r="AA3">
-        <v>3.129054006103183</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AB3">
-        <v>0.05264808678490015</v>
-      </c>
-      <c r="AC3">
-        <v>3.076405919318283</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AD3">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-4.111</v>
+        <v>-66.3</v>
       </c>
       <c r="AH3">
-        <v>0.004378889144964277</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004524886877828055</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-19.6698564593301</v>
+        <v>4.510204081632654</v>
       </c>
       <c r="AK3">
-        <v>-59.57971014492757</v>
+        <v>1.093878897871638</v>
       </c>
       <c r="AL3">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.023</v>
-      </c>
-      <c r="AN3">
-        <v>0.02848575712143928</v>
-      </c>
-      <c r="AO3">
-        <v>326</v>
-      </c>
-      <c r="AP3">
-        <v>-6.163418290854572</v>
-      </c>
-      <c r="AQ3">
-        <v>-28.34782608695652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +799,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Everest Investments S.A. (WSE:EVE)</t>
+          <t>Nexity Global SA (WSE:NXG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -855,23 +807,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.476</v>
+      </c>
       <c r="G4">
-        <v>-0.237250554323725</v>
+        <v>-4.724137931034483</v>
       </c>
       <c r="H4">
-        <v>-0.237250554323725</v>
+        <v>-4.724137931034483</v>
       </c>
       <c r="I4">
-        <v>-0.2239467849223947</v>
+        <v>-7.172413793103448</v>
       </c>
       <c r="J4">
-        <v>-0.2239467849223947</v>
+        <v>-7.172413793103448</v>
       </c>
       <c r="K4">
-        <v>-0.114</v>
+        <v>-0.064</v>
       </c>
       <c r="L4">
-        <v>-0.2527716186252771</v>
+        <v>-2.206896551724138</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -895,70 +850,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.023</v>
+        <v>0.303</v>
       </c>
       <c r="V4">
-        <v>0.07590759075907591</v>
+        <v>0.005894941634241245</v>
       </c>
       <c r="W4">
-        <v>1.085714285714286</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="X4">
-        <v>0.07566721151536181</v>
+        <v>0.03980862653415326</v>
       </c>
       <c r="Y4">
-        <v>1.010047074198924</v>
+        <v>0.2620781659186769</v>
       </c>
       <c r="Z4">
-        <v>-9.020000000000003</v>
+        <v>-2.41666666666667</v>
       </c>
       <c r="AA4">
-        <v>2.02</v>
+        <v>17.33333333333336</v>
       </c>
       <c r="AB4">
-        <v>0.06075284585069535</v>
+        <v>0.03980747124499907</v>
       </c>
       <c r="AC4">
-        <v>1.959247154149305</v>
+        <v>17.29352586208836</v>
       </c>
       <c r="AD4">
-        <v>0.263</v>
+        <v>0.101</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.263</v>
+        <v>0.101</v>
       </c>
       <c r="AG4">
-        <v>0.24</v>
+        <v>-0.202</v>
       </c>
       <c r="AH4">
-        <v>0.4646643109540636</v>
+        <v>0.00196112696840838</v>
       </c>
       <c r="AI4">
-        <v>1.892086330935252</v>
+        <v>0.0615478366849482</v>
       </c>
       <c r="AJ4">
-        <v>0.4419889502762431</v>
+        <v>-0.003945466619789835</v>
       </c>
       <c r="AK4">
-        <v>2.068965517241379</v>
+        <v>-0.1509715994020926</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AM4">
-        <v>-0.275</v>
+        <v>-0.013</v>
       </c>
       <c r="AN4">
-        <v>-2.603960396039604</v>
+        <v>-0.507537688442211</v>
+      </c>
+      <c r="AO4">
+        <v>-52</v>
       </c>
       <c r="AP4">
-        <v>-2.376237623762376</v>
+        <v>1.015075376884422</v>
       </c>
       <c r="AQ4">
-        <v>0.3672727272727273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +927,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALTUS Towarzystwo Funduszy Inwestycyjnych S.A. (WSE:ALI)</t>
+          <t>Quercus TFI S.A. (WSE:QRS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,37 +936,37 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0827</v>
+        <v>-0.0733</v>
       </c>
       <c r="E5">
-        <v>-0.31</v>
+        <v>-0.0372</v>
       </c>
       <c r="G5">
-        <v>0.4838709677419354</v>
+        <v>0.3483443708609271</v>
       </c>
       <c r="H5">
-        <v>0.4838709677419354</v>
+        <v>0.3483443708609271</v>
       </c>
       <c r="I5">
-        <v>0.1045698924731183</v>
+        <v>0.2913907284768212</v>
       </c>
       <c r="J5">
-        <v>0.1045698924731183</v>
+        <v>0.2477511691409561</v>
       </c>
       <c r="K5">
-        <v>1.81</v>
+        <v>5.38</v>
       </c>
       <c r="L5">
-        <v>0.04865591397849462</v>
+        <v>0.3562913907284768</v>
       </c>
       <c r="M5">
-        <v>0.774</v>
+        <v>5.07</v>
       </c>
       <c r="N5">
-        <v>0.04324022346368715</v>
+        <v>0.09371534195933456</v>
       </c>
       <c r="O5">
-        <v>0.4276243093922652</v>
+        <v>0.9423791821561339</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1020,79 +978,76 @@
         <v>-0</v>
       </c>
       <c r="S5">
-        <v>0.774</v>
+        <v>5.07</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>9.35</v>
+        <v>6.93</v>
       </c>
       <c r="V5">
-        <v>0.5223463687150838</v>
+        <v>0.1280961182994454</v>
       </c>
       <c r="W5">
-        <v>0.04641025641025641</v>
+        <v>0.4373983739837398</v>
       </c>
       <c r="X5">
-        <v>0.05313783271003601</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y5">
-        <v>-0.006727576299779603</v>
+        <v>0.3976382288595595</v>
       </c>
       <c r="Z5">
-        <v>7.484909456740441</v>
+        <v>5.655430711610487</v>
       </c>
       <c r="AA5">
-        <v>0.782696177062374</v>
+        <v>1.401139570797167</v>
       </c>
       <c r="AB5">
-        <v>0.05286723012628692</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC5">
-        <v>0.7298289469360871</v>
+        <v>1.361379425672987</v>
       </c>
       <c r="AD5">
-        <v>0.521</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.521</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-8.828999999999999</v>
+        <v>-6.93</v>
       </c>
       <c r="AH5">
-        <v>0.02828293795125129</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01282587824031905</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.9733215742476021</v>
+        <v>-0.1469154123383506</v>
       </c>
       <c r="AK5">
-        <v>-0.2823382686834447</v>
+        <v>-0.6204118173679497</v>
       </c>
       <c r="AL5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.137</v>
+        <v>-0.109</v>
       </c>
       <c r="AN5">
-        <v>0.1315656565656566</v>
-      </c>
-      <c r="AO5">
-        <v>97.25</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-2.229545454545454</v>
+        <v>-1.533185840707965</v>
       </c>
       <c r="AQ5">
-        <v>-28.39416058394161</v>
+        <v>-40.36697247706422</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1058,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quercus TFI S.A. (WSE:QRS)</t>
+          <t>Private Equity Managers SA (WSE:PEM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1112,28 +1067,28 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.163</v>
+        <v>-0.121</v>
       </c>
       <c r="E6">
-        <v>-0.244</v>
+        <v>-0.307</v>
       </c>
       <c r="G6">
-        <v>0.4646666666666667</v>
+        <v>0.4144230769230769</v>
       </c>
       <c r="H6">
-        <v>0.4646666666666667</v>
+        <v>0.4144230769230769</v>
       </c>
       <c r="I6">
-        <v>0.2493333333333334</v>
+        <v>0.2711538461538461</v>
       </c>
       <c r="J6">
-        <v>0.1979292225201073</v>
+        <v>0.2185735785953177</v>
       </c>
       <c r="K6">
-        <v>2.96</v>
+        <v>1.85</v>
       </c>
       <c r="L6">
-        <v>0.1973333333333333</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1157,70 +1112,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>9.630000000000001</v>
+        <v>4.57</v>
       </c>
       <c r="V6">
-        <v>0.2735795454545454</v>
+        <v>0.3311594202898551</v>
       </c>
       <c r="W6">
-        <v>0.2930693069306931</v>
+        <v>0.1651785714285715</v>
       </c>
       <c r="X6">
-        <v>0.05235614419540459</v>
+        <v>0.06192983335804027</v>
       </c>
       <c r="Y6">
-        <v>0.2407131627352885</v>
+        <v>0.1032487380705312</v>
       </c>
       <c r="Z6">
-        <v>3.278688524590164</v>
+        <v>5.621621621621617</v>
       </c>
       <c r="AA6">
-        <v>0.6489482705577287</v>
+        <v>1.22873795534665</v>
       </c>
       <c r="AB6">
-        <v>0.05235614419540459</v>
+        <v>0.0453831449347569</v>
       </c>
       <c r="AC6">
-        <v>0.5965921263623242</v>
+        <v>1.183354810411893</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="AG6">
-        <v>-9.630000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.4732824427480916</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="AJ6">
-        <v>-0.3766132186155651</v>
+        <v>0.3619972260748959</v>
       </c>
       <c r="AK6">
-        <v>-3.606741573033708</v>
+        <v>0.3759001440230437</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.522</v>
       </c>
       <c r="AM6">
-        <v>-0.101</v>
+        <v>0.509</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>3.862928348909657</v>
+      </c>
+      <c r="AO6">
+        <v>5.402298850574712</v>
       </c>
       <c r="AP6">
-        <v>-2.514360313315927</v>
+        <v>2.439252336448598</v>
       </c>
       <c r="AQ6">
-        <v>-37.02970297029703</v>
+        <v>5.540275049115913</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1189,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Skarbiec Holding S.A. (WSE:SKH)</t>
+          <t>Venture INC ASI S.A. (WSE:VTI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1239,116 +1197,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="E7">
+        <v>0.715</v>
+      </c>
       <c r="G7">
-        <v>0.3897058823529412</v>
+        <v>-0.04816176470588235</v>
       </c>
       <c r="H7">
-        <v>0.3897058823529412</v>
+        <v>-0.04816176470588235</v>
       </c>
       <c r="I7">
-        <v>0.355514705882353</v>
+        <v>0.9007352941176471</v>
       </c>
       <c r="J7">
-        <v>0.2847820925245098</v>
+        <v>0.9007352941176471</v>
       </c>
       <c r="K7">
-        <v>7.69</v>
+        <v>0.236</v>
       </c>
       <c r="L7">
-        <v>0.2827205882352941</v>
+        <v>0.08676470588235292</v>
       </c>
       <c r="M7">
-        <v>7.57</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.2219941348973607</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.9843953185955786</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>7.57</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.2219941348973607</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.9843953185955786</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>15.8</v>
+        <v>4.16</v>
       </c>
       <c r="V7">
-        <v>0.4633431085043988</v>
+        <v>0.2350282485875706</v>
       </c>
       <c r="W7">
-        <v>0.2670138888888889</v>
+        <v>0.01761194029850746</v>
       </c>
       <c r="X7">
-        <v>0.05356114154148567</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y7">
-        <v>0.2134527473474032</v>
+        <v>-0.02214820482567285</v>
       </c>
       <c r="Z7">
-        <v>1.968162083936324</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="AA7">
-        <v>0.5604973166907863</v>
+        <v>0.3520114942528736</v>
       </c>
       <c r="AB7">
-        <v>0.05269733325933144</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC7">
-        <v>0.5077999834314548</v>
+        <v>0.3122513491286933</v>
       </c>
       <c r="AD7">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>-14.27</v>
+        <v>-4.16</v>
       </c>
       <c r="AH7">
-        <v>0.04294134156609598</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.05439033060789192</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-0.719616742309632</v>
+        <v>-0.3072378138847858</v>
       </c>
       <c r="AK7">
-        <v>-1.157339821573398</v>
+        <v>-0.4928909952606635</v>
       </c>
       <c r="AL7">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="AM7">
-        <v>-0.111</v>
+        <v>-0.487</v>
       </c>
       <c r="AN7">
-        <v>0.1540785498489426</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1208.75</v>
+        <v>136.1111111111111</v>
       </c>
       <c r="AP7">
-        <v>-1.43705941591138</v>
+        <v>-1.697959183673469</v>
       </c>
       <c r="AQ7">
-        <v>-87.11711711711713</v>
+        <v>-5.030800821355236</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Soho Development S.A. (WSE:SHD)</t>
+          <t>ONE S.A. (WSE:FMG)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1367,23 +1325,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.149</v>
+      </c>
+      <c r="E8">
+        <v>0.342</v>
+      </c>
       <c r="G8">
-        <v>0.04437869822485207</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="H8">
-        <v>0.04437869822485207</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="I8">
-        <v>0.136094674556213</v>
+        <v>0.1656891495601173</v>
       </c>
       <c r="J8">
-        <v>0.136094674556213</v>
+        <v>0.1510350384551541</v>
       </c>
       <c r="K8">
-        <v>-4.27</v>
+        <v>7.73</v>
       </c>
       <c r="L8">
-        <v>-0.08422090729783036</v>
+        <v>1.133431085043988</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1392,7 +1356,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1401,79 +1365,79 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4.14</v>
+        <v>0.29</v>
       </c>
       <c r="V8">
-        <v>1.140495867768595</v>
+        <v>0.4723127035830619</v>
       </c>
       <c r="W8">
-        <v>-0.1326086956521739</v>
+        <v>3.716346153846154</v>
       </c>
       <c r="X8">
-        <v>0.07706706224120281</v>
+        <v>0.1458447938758859</v>
       </c>
       <c r="Y8">
-        <v>-0.2096757578933767</v>
+        <v>3.570501359970268</v>
       </c>
       <c r="Z8">
-        <v>1.891791044776119</v>
+        <v>2.294751009421265</v>
       </c>
       <c r="AA8">
-        <v>0.2574626865671642</v>
+        <v>0.3465878069529444</v>
       </c>
       <c r="AB8">
-        <v>0.05763855219995852</v>
+        <v>0.05214612168151819</v>
       </c>
       <c r="AC8">
-        <v>0.1998241343672057</v>
+        <v>0.2944416852714262</v>
       </c>
       <c r="AD8">
-        <v>3.34</v>
+        <v>2.64</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>3.34</v>
+        <v>2.64</v>
       </c>
       <c r="AG8">
-        <v>-0.7999999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="AH8">
-        <v>0.4791965566714491</v>
+        <v>0.8113091579594346</v>
       </c>
       <c r="AI8">
-        <v>0.2644497228820269</v>
+        <v>0.4177215189873418</v>
       </c>
       <c r="AJ8">
-        <v>-0.2826855123674911</v>
+        <v>0.7928475033738192</v>
       </c>
       <c r="AK8">
-        <v>-0.09422850412249704</v>
+        <v>0.3897180762852405</v>
       </c>
       <c r="AL8">
-        <v>0.331</v>
+        <v>0.194</v>
       </c>
       <c r="AM8">
-        <v>-0.008000000000000007</v>
+        <v>0.166</v>
       </c>
       <c r="AN8">
-        <v>0.4785100286532951</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="AO8">
-        <v>20.84592145015106</v>
+        <v>5.824742268041236</v>
       </c>
       <c r="AP8">
-        <v>-0.1146131805157593</v>
+        <v>1.702898550724638</v>
       </c>
       <c r="AQ8">
-        <v>-862.4999999999993</v>
+        <v>6.80722891566265</v>
       </c>
     </row>
     <row r="9">
@@ -1484,7 +1448,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr.Finance S.A. (WSE:DRF)</t>
+          <t>Impera Capital Alternatywna Spolka Inwestycyjna SA (WSE:IMP)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1493,25 +1457,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.0668</v>
+        <v>0.0108</v>
       </c>
       <c r="G9">
-        <v>0.05116279069767442</v>
+        <v>0.9593787335722821</v>
       </c>
       <c r="H9">
-        <v>0.05116279069767442</v>
+        <v>0.9593787335722821</v>
       </c>
       <c r="I9">
-        <v>0.02616279069767442</v>
+        <v>0.921146953405018</v>
       </c>
       <c r="J9">
-        <v>0.02616279069767442</v>
+        <v>0.921146953405018</v>
       </c>
       <c r="K9">
-        <v>0.045</v>
+        <v>0.675</v>
       </c>
       <c r="L9">
-        <v>0.02616279069767442</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1535,31 +1499,31 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.2665036674816626</v>
       </c>
       <c r="W9">
-        <v>0.3813559322033898</v>
+        <v>0.2039274924471299</v>
       </c>
       <c r="X9">
-        <v>0.05235614419540459</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y9">
-        <v>0.3289997880079852</v>
+        <v>0.1641673473229496</v>
       </c>
       <c r="Z9">
-        <v>9.555555555555555</v>
+        <v>0.300646551724138</v>
       </c>
       <c r="AA9">
-        <v>0.25</v>
+        <v>0.2769396551724138</v>
       </c>
       <c r="AB9">
-        <v>0.05235614419540459</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC9">
-        <v>0.1976438558045954</v>
+        <v>0.2371795100482335</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1571,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>-1.09</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1580,28 +1544,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>-0.3633333333333333</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>-0.4113207547169811</v>
       </c>
       <c r="AL9">
         <v>0.002</v>
       </c>
       <c r="AM9">
-        <v>-0.002</v>
+        <v>-0.019</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>22.5</v>
+        <v>385.5</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>-1.411917098445596</v>
       </c>
       <c r="AQ9">
-        <v>-22.5</v>
+        <v>-40.57894736842105</v>
       </c>
     </row>
     <row r="10">
@@ -1621,28 +1585,25 @@
         </is>
       </c>
       <c r="D10">
-        <v>3.585</v>
-      </c>
-      <c r="E10">
-        <v>-0.244</v>
+        <v>1.806</v>
       </c>
       <c r="G10">
-        <v>0.1021897810218978</v>
+        <v>0.2203592814371258</v>
       </c>
       <c r="H10">
-        <v>0.1021897810218978</v>
+        <v>0.2203592814371258</v>
       </c>
       <c r="I10">
-        <v>0.1518248175182482</v>
+        <v>0.1892215568862275</v>
       </c>
       <c r="J10">
-        <v>0.1433329209451936</v>
+        <v>0.1604340037872972</v>
       </c>
       <c r="K10">
-        <v>1.46</v>
+        <v>0.772</v>
       </c>
       <c r="L10">
-        <v>0.1065693430656934</v>
+        <v>0.09245508982035928</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1666,73 +1627,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.233</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="V10">
-        <v>0.02008620689655173</v>
+        <v>0.0529245283018868</v>
       </c>
       <c r="W10">
-        <v>0.1748502994011976</v>
+        <v>0.08446389496717724</v>
       </c>
       <c r="X10">
-        <v>0.05832939506950428</v>
+        <v>0.04664988511943831</v>
       </c>
       <c r="Y10">
-        <v>0.1165209043316933</v>
+        <v>0.03781400984773893</v>
       </c>
       <c r="Z10">
-        <v>1.0703125</v>
+        <v>0.7334855938158819</v>
       </c>
       <c r="AA10">
-        <v>0.1534110169491525</v>
+        <v>0.1176760305361851</v>
       </c>
       <c r="AB10">
-        <v>0.05380179355780866</v>
+        <v>0.04235360597505715</v>
       </c>
       <c r="AC10">
-        <v>0.09960922339134388</v>
+        <v>0.07532242456112798</v>
       </c>
       <c r="AD10">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="AG10">
-        <v>2.347</v>
+        <v>2.399</v>
       </c>
       <c r="AH10">
-        <v>0.1819464033850494</v>
+        <v>0.2182890855457227</v>
       </c>
       <c r="AI10">
-        <v>0.1781767955801105</v>
+        <v>0.1820418204182042</v>
       </c>
       <c r="AJ10">
-        <v>0.1682799168279917</v>
+        <v>0.1845526578967613</v>
       </c>
       <c r="AK10">
-        <v>0.1647364357408577</v>
+        <v>0.1528122810370087</v>
       </c>
       <c r="AL10">
-        <v>0.227</v>
+        <v>0.244</v>
       </c>
       <c r="AM10">
-        <v>0.191</v>
+        <v>0.18</v>
       </c>
       <c r="AN10">
-        <v>1.216981132075472</v>
+        <v>1.635359116022099</v>
       </c>
       <c r="AO10">
-        <v>9.162995594713657</v>
+        <v>6.475409836065574</v>
       </c>
       <c r="AP10">
-        <v>1.107075471698113</v>
+        <v>1.325414364640884</v>
       </c>
       <c r="AQ10">
-        <v>10.89005235602094</v>
+        <v>8.777777777777779</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1704,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCI Capital S.A. (WSE:MCI)</t>
+          <t>Dr.Finance S.A. (WSE:DRF)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1752,37 +1713,34 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.127</v>
-      </c>
-      <c r="E11">
-        <v>-0.115</v>
+        <v>0.111</v>
       </c>
       <c r="G11">
-        <v>1.150300601202405</v>
+        <v>0.03650793650793651</v>
       </c>
       <c r="H11">
-        <v>1.150300601202405</v>
+        <v>0.03650793650793651</v>
       </c>
       <c r="I11">
-        <v>0.9779559118236473</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="J11">
-        <v>0.9779559118236473</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="K11">
-        <v>47.4</v>
+        <v>0.022</v>
       </c>
       <c r="L11">
-        <v>0.9498997995991983</v>
+        <v>0.01164021164021164</v>
       </c>
       <c r="M11">
-        <v>7.53</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.06151960784313725</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.1588607594936709</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1794,79 +1752,70 @@
         <v>-0</v>
       </c>
       <c r="S11">
-        <v>7.53</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.532</v>
+        <v>0.134</v>
       </c>
       <c r="V11">
-        <v>0.00434640522875817</v>
+        <v>0.08220858895705523</v>
       </c>
       <c r="W11">
-        <v>0.1504284354173278</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X11">
-        <v>0.06258091395684039</v>
+        <v>0.03991151148952134</v>
       </c>
       <c r="Y11">
-        <v>0.08784752146048742</v>
+        <v>0.1029456313676215</v>
       </c>
       <c r="Z11">
-        <v>0.130765541838422</v>
+        <v>12.27272727272727</v>
       </c>
       <c r="AA11">
-        <v>0.1278829347037073</v>
+        <v>0.09740259740259739</v>
       </c>
       <c r="AB11">
-        <v>0.05320693010174894</v>
+        <v>0.04007768844392712</v>
       </c>
       <c r="AC11">
-        <v>0.07467600460195833</v>
+        <v>0.05732490895867027</v>
       </c>
       <c r="AD11">
-        <v>46.6</v>
+        <v>0.01</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>46.6</v>
+        <v>0.01</v>
       </c>
       <c r="AG11">
-        <v>46.068</v>
+        <v>-0.124</v>
       </c>
       <c r="AH11">
-        <v>0.2757396449704142</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="AI11">
-        <v>0.1329150028522533</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="AJ11">
-        <v>0.2734525251086259</v>
+        <v>-0.08233731739707838</v>
       </c>
       <c r="AK11">
-        <v>0.1315972896694357</v>
+        <v>-2.175438596491229</v>
       </c>
       <c r="AL11">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.9549180327868854</v>
-      </c>
-      <c r="AO11">
-        <v>14.48071216617211</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AP11">
-        <v>0.944016393442623</v>
-      </c>
-      <c r="AQ11">
-        <v>14.48071216617211</v>
+        <v>-8.857142857142858</v>
       </c>
     </row>
     <row r="12">
@@ -1877,7 +1826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Venture Inc S.A. (WSE:VTI)</t>
+          <t>MCI Capital Alternatywna Spólka Inwestycyjna S.A. (WSE:MCI)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1886,34 +1835,37 @@
         </is>
       </c>
       <c r="D12">
-        <v>1.146</v>
+        <v>-0.105</v>
+      </c>
+      <c r="E12">
+        <v>-0.0911</v>
       </c>
       <c r="G12">
-        <v>1.217008797653959</v>
+        <v>1.493150684931507</v>
       </c>
       <c r="H12">
-        <v>1.217008797653959</v>
+        <v>1.493150684931507</v>
       </c>
       <c r="I12">
-        <v>0.5190615835777126</v>
+        <v>0.9589041095890412</v>
       </c>
       <c r="J12">
-        <v>0.5190615835777126</v>
+        <v>0.9589041095890412</v>
       </c>
       <c r="K12">
-        <v>-0.963</v>
+        <v>20.9</v>
       </c>
       <c r="L12">
-        <v>-2.824046920821114</v>
+        <v>0.954337899543379</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.01339503166098393</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.1315789473684211</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1922,79 +1874,82 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.75</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>5.61</v>
+        <v>0.504</v>
       </c>
       <c r="V12">
-        <v>0.5968085106382979</v>
+        <v>0.002454943984413054</v>
       </c>
       <c r="W12">
-        <v>-0.06878571428571428</v>
+        <v>0.06874999999999999</v>
       </c>
       <c r="X12">
-        <v>0.05235614419540459</v>
+        <v>0.04431492347375271</v>
       </c>
       <c r="Y12">
-        <v>-0.1211418584811189</v>
+        <v>0.02443507652624728</v>
       </c>
       <c r="Z12">
-        <v>0.04736111111111111</v>
+        <v>0.06255927419815578</v>
       </c>
       <c r="AA12">
-        <v>0.02458333333333333</v>
+        <v>0.05998834512151924</v>
       </c>
       <c r="AB12">
-        <v>0.05235614419540459</v>
+        <v>0.04077852910122905</v>
       </c>
       <c r="AC12">
-        <v>-0.02777281086207126</v>
+        <v>0.01920981602029018</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="AG12">
-        <v>-5.61</v>
+        <v>37.396</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.1558388157894737</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.1019639494215765</v>
       </c>
       <c r="AJ12">
-        <v>-1.480211081794195</v>
+        <v>0.1540857698519959</v>
       </c>
       <c r="AK12">
-        <v>-0.8918918918918919</v>
+        <v>0.1007446200928889</v>
       </c>
       <c r="AL12">
-        <v>0.02</v>
+        <v>2.28</v>
       </c>
       <c r="AM12">
-        <v>-0.103</v>
+        <v>2.28</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1.787735849056604</v>
       </c>
       <c r="AO12">
-        <v>8.85</v>
+        <v>9.210526315789474</v>
       </c>
       <c r="AP12">
-        <v>-31.34078212290503</v>
+        <v>1.763962264150944</v>
       </c>
       <c r="AQ12">
-        <v>-1.718446601941747</v>
+        <v>9.210526315789474</v>
       </c>
     </row>
     <row r="13">
@@ -2005,7 +1960,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPARK VC S.A. (WSE:SPK)</t>
+          <t>ALTUS SA (WSE:ALI)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2013,32 +1968,38 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D13">
+        <v>-0.177</v>
+      </c>
+      <c r="E13">
+        <v>-0.597</v>
+      </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.1245810055865922</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1245810055865922</v>
       </c>
       <c r="I13">
-        <v>0.8303571428571428</v>
+        <v>0.08603351955307263</v>
       </c>
       <c r="J13">
-        <v>0.8303571428571428</v>
+        <v>0.04301675977653632</v>
       </c>
       <c r="K13">
-        <v>-3.86</v>
+        <v>0.127</v>
       </c>
       <c r="L13">
-        <v>-34.46428571428572</v>
+        <v>0.007094972067039107</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>14.1</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>1.330188679245283</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>111.0236220472441</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2047,67 +2008,82 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>14.1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.6783018867924528</v>
       </c>
       <c r="W13">
-        <v>-0.6069182389937107</v>
+        <v>0.003413978494623656</v>
       </c>
       <c r="X13">
-        <v>0.05239403983751259</v>
+        <v>0.04069351868434871</v>
       </c>
       <c r="Y13">
-        <v>-0.6593122788312232</v>
+        <v>-0.03727954018972506</v>
       </c>
       <c r="Z13">
-        <v>0.01755485893416928</v>
+        <v>0.6418301122306285</v>
       </c>
       <c r="AA13">
-        <v>0.01457680250783699</v>
+        <v>0.02760945175517229</v>
       </c>
       <c r="AB13">
-        <v>0.0523816064737006</v>
+        <v>0.04019321690218495</v>
       </c>
       <c r="AC13">
-        <v>-0.03780480396586361</v>
+        <v>-0.01258376514701266</v>
       </c>
       <c r="AD13">
-        <v>0.023</v>
+        <v>0.401</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.023</v>
+        <v>0.401</v>
       </c>
       <c r="AG13">
-        <v>0.023</v>
+        <v>-6.789000000000001</v>
       </c>
       <c r="AH13">
-        <v>0.001409054708080622</v>
+        <v>0.03645123170620853</v>
       </c>
       <c r="AI13">
-        <v>0.01148277583624563</v>
+        <v>0.01421935392361973</v>
       </c>
       <c r="AJ13">
-        <v>0.001409054708080622</v>
+        <v>-1.781422198897928</v>
       </c>
       <c r="AK13">
-        <v>0.01148277583624563</v>
+        <v>-0.3231164628051973</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>-0.453</v>
+      </c>
+      <c r="AN13">
+        <v>0.2252808988764045</v>
+      </c>
+      <c r="AO13">
+        <v>35</v>
+      </c>
+      <c r="AP13">
+        <v>-3.814044943820225</v>
+      </c>
+      <c r="AQ13">
+        <v>-3.399558498896247</v>
       </c>
     </row>
     <row r="14">
@@ -2118,7 +2094,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Blumerang Investors S.A. (WSE:BLU)</t>
+          <t>M.W. Trade SA (WSE:MWT)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2127,115 +2103,118 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.367</v>
+        <v>-0.428</v>
       </c>
       <c r="G14">
-        <v>0.1956521739130435</v>
+        <v>1.911290322580645</v>
       </c>
       <c r="H14">
-        <v>0.1956521739130435</v>
+        <v>1.911290322580645</v>
       </c>
       <c r="I14">
-        <v>0.1086956521739131</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="J14">
-        <v>0.1086956521739131</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="K14">
-        <v>-2.46</v>
+        <v>-0.923</v>
       </c>
       <c r="L14">
-        <v>-53.47826086956522</v>
+        <v>-0.7443548387096774</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>4.56</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-4.940411700975081</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>4.56</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-4.940411700975081</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.8924205378973106</v>
       </c>
       <c r="W14">
-        <v>-1.684931506849315</v>
+        <v>-0.04480582524271844</v>
       </c>
       <c r="X14">
-        <v>0.05235614419540459</v>
+        <v>0.04487566211266369</v>
       </c>
       <c r="Y14">
-        <v>-1.73728765104472</v>
+        <v>-0.08968148735538214</v>
       </c>
       <c r="Z14">
-        <v>0.04821802935010482</v>
+        <v>0.06877426511369938</v>
       </c>
       <c r="AA14">
-        <v>0.005241090146750524</v>
+        <v>0.008430393788130892</v>
       </c>
       <c r="AB14">
-        <v>0.05235614419540459</v>
+        <v>0.04238187921973073</v>
       </c>
       <c r="AC14">
-        <v>-0.04711505404865406</v>
+        <v>-0.03395148543159984</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.848</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.848</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>-2.802</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.1717294451194816</v>
       </c>
       <c r="AI14">
-        <v>-0</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>-2.175465838509317</v>
       </c>
       <c r="AK14">
-        <v>-0</v>
+        <v>-0.2139257901969766</v>
       </c>
       <c r="AL14">
-        <v>0.054</v>
+        <v>0.718</v>
       </c>
       <c r="AM14">
-        <v>0.041</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>4.790960451977401</v>
       </c>
       <c r="AO14">
-        <v>0.0925925925925926</v>
+        <v>0.2116991643454039</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>-15.83050847457627</v>
       </c>
       <c r="AQ14">
-        <v>0.1219512195121951</v>
+        <v>0.2338461538461539</v>
       </c>
     </row>
     <row r="15">
@@ -2246,7 +2225,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Impera Capital Alternatywna Spolka Inwestycyjna SA (WSE:IMP)</t>
+          <t>Caspar Asset Management S.A. (WSE:CSR)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2255,118 +2234,112 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.4320000000000001</v>
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0.588</v>
       </c>
       <c r="G15">
-        <v>2.481481481481481</v>
+        <v>0.0001379310344827586</v>
       </c>
       <c r="H15">
-        <v>2.481481481481481</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.283</v>
+        <v>2.11</v>
       </c>
       <c r="L15">
-        <v>-1.746913580246913</v>
+        <v>0.2910344827586206</v>
       </c>
       <c r="M15">
-        <v>0.47</v>
+        <v>0.889</v>
       </c>
       <c r="N15">
-        <v>0.2473684210526316</v>
+        <v>0.02351851851851852</v>
       </c>
       <c r="O15">
-        <v>-1.660777385159011</v>
+        <v>0.4213270142180095</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>0.889</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.02351851851851852</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.4213270142180095</v>
       </c>
       <c r="S15">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.518</v>
+        <v>1.61</v>
       </c>
       <c r="V15">
-        <v>0.2726315789473684</v>
+        <v>0.0425925925925926</v>
       </c>
       <c r="W15">
-        <v>-0.06953316953316953</v>
+        <v>0.7080536912751677</v>
       </c>
       <c r="X15">
-        <v>0.05235614419540459</v>
+        <v>0.03979212827656071</v>
       </c>
       <c r="Y15">
-        <v>-0.1218893137285741</v>
+        <v>0.668261562998607</v>
       </c>
       <c r="Z15">
-        <v>0.05382059800664452</v>
+        <v>3.531417437895763</v>
       </c>
       <c r="AA15">
-        <v>0.003986710963455149</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.05235614419540459</v>
+        <v>0.03977552629323328</v>
       </c>
       <c r="AC15">
-        <v>-0.04836943323194944</v>
+        <v>-0.03977552629323328</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="AG15">
-        <v>-0.518</v>
+        <v>-1.561</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.001294618087664139</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>0.01108848155691333</v>
       </c>
       <c r="AJ15">
-        <v>-0.3748191027496383</v>
+        <v>-0.04307514004249566</v>
       </c>
       <c r="AK15">
-        <v>-0.209546925566343</v>
+        <v>-0.5557137771448915</v>
       </c>
       <c r="AL15">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>0.006</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>2</v>
-      </c>
-      <c r="AP15">
-        <v>-39.84615384615385</v>
+        <v>-0.036</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -2386,7 +2359,7 @@
         </is>
       </c>
       <c r="K16">
-        <v>-0.339</v>
+        <v>6.37</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2395,7 +2368,7 @@
         <v>-0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P16">
         <v>-0</v>
@@ -2404,67 +2377,73 @@
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.0008264462809917356</v>
       </c>
       <c r="W16">
-        <v>-0.04801699716713882</v>
+        <v>1.035772357723577</v>
       </c>
       <c r="X16">
-        <v>0.05235614419540459</v>
+        <v>0.04057577215064598</v>
       </c>
       <c r="Y16">
-        <v>-0.1003731413625434</v>
+        <v>0.9951965855729311</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>-0.001345799688341125</v>
+        <v>-0.003948306319149595</v>
       </c>
       <c r="AB16">
-        <v>0.05235614419540459</v>
+        <v>0.04024867806621156</v>
       </c>
       <c r="AC16">
-        <v>-0.05370194388374571</v>
+        <v>-0.04419698438536115</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.003189792663476874</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>0.03122497998398719</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>0.003110295876864184</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>0.003</v>
+      </c>
+      <c r="AO16">
+        <v>-10</v>
+      </c>
+      <c r="AQ16">
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
@@ -2475,7 +2454,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M.W. Trade SA (WSE:MWT)</t>
+          <t>SPARK VC S.A. (WSE:SPK)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2483,26 +2462,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.241</v>
-      </c>
-      <c r="G17">
-        <v>0.3243902439024391</v>
-      </c>
-      <c r="H17">
-        <v>0.3243902439024391</v>
-      </c>
-      <c r="I17">
-        <v>-0.3243902439024391</v>
-      </c>
-      <c r="J17">
-        <v>-0.1621951219512195</v>
-      </c>
       <c r="K17">
-        <v>-0.875</v>
-      </c>
-      <c r="L17">
-        <v>-0.2134146341463415</v>
+        <v>-1.96</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2526,70 +2487,67 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>9.869999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="V17">
-        <v>1.352054794520548</v>
+        <v>3.853564547206166e-05</v>
       </c>
       <c r="W17">
-        <v>-0.03739316239316239</v>
+        <v>-0.9898989898989899</v>
       </c>
       <c r="X17">
-        <v>0.0792126209936823</v>
+        <v>0.03976917752559575</v>
       </c>
       <c r="Y17">
-        <v>-0.1166057833868447</v>
+        <v>-1.029668167424586</v>
       </c>
       <c r="Z17">
-        <v>0.08064516129032256</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.01308025177025964</v>
+        <v>-0.007488766849725412</v>
       </c>
       <c r="AB17">
-        <v>0.05632887829596461</v>
+        <v>0.03976573202751688</v>
       </c>
       <c r="AC17">
-        <v>-0.06940913006622425</v>
+        <v>-0.04725449887724229</v>
       </c>
       <c r="AD17">
-        <v>7.3</v>
+        <v>0.019</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>7.3</v>
+        <v>0.019</v>
       </c>
       <c r="AG17">
-        <v>-2.569999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="AH17">
-        <v>0.5</v>
+        <v>0.0003659546601436854</v>
       </c>
       <c r="AI17">
-        <v>0.2616487455197132</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="AJ17">
-        <v>-0.5433403805496827</v>
+        <v>0.0003274457306855173</v>
       </c>
       <c r="AK17">
-        <v>-0.1425402107598447</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM17">
-        <v>-1.69</v>
-      </c>
-      <c r="AN17">
-        <v>-5.572519083969465</v>
-      </c>
-      <c r="AP17">
-        <v>1.961832061068702</v>
+        <v>-0.001</v>
+      </c>
+      <c r="AO17">
+        <v>-15</v>
       </c>
       <c r="AQ17">
-        <v>0.7869822485207101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2600,7 +2558,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ABS Investment SA (WSE:AIN)</t>
+          <t>Devoran S.A. (WSE:DEV)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2608,35 +2566,32 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D18">
-        <v>-0.202</v>
-      </c>
       <c r="G18">
-        <v>-1.216494845360825</v>
+        <v>0.5742574257425742</v>
       </c>
       <c r="H18">
-        <v>-1.216494845360825</v>
+        <v>0.5742574257425742</v>
       </c>
       <c r="I18">
-        <v>-1.195876288659794</v>
+        <v>-0.1287128712871287</v>
       </c>
       <c r="J18">
-        <v>-1.195876288659794</v>
+        <v>-0.1287128712871287</v>
       </c>
       <c r="K18">
-        <v>-1.49</v>
+        <v>0.106</v>
       </c>
       <c r="L18">
-        <v>-15.36082474226804</v>
+        <v>1.049504950495049</v>
       </c>
       <c r="M18">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="N18">
-        <v>0.00065359477124183</v>
+        <v>-0</v>
       </c>
       <c r="O18">
-        <v>-0.0006711409395973154</v>
+        <v>-0</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2645,13 +2600,10 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S18">
-        <v>0.001</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2660,67 +2612,67 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>-0.2774674115456238</v>
+        <v>0.08617886178861789</v>
       </c>
       <c r="X18">
-        <v>0.07078705964520302</v>
+        <v>0.04206925843340184</v>
       </c>
       <c r="Y18">
-        <v>-0.3482544711908269</v>
+        <v>0.04410960335521605</v>
       </c>
       <c r="Z18">
-        <v>0.01485451761102603</v>
+        <v>0.08844133099824868</v>
       </c>
       <c r="AA18">
-        <v>-0.01776416539050536</v>
+        <v>-0.01138353765323993</v>
       </c>
       <c r="AB18">
-        <v>0.05684243939353484</v>
+        <v>0.04421691959546845</v>
       </c>
       <c r="AC18">
-        <v>-0.0746066047840402</v>
+        <v>-0.05560045724870837</v>
       </c>
       <c r="AD18">
-        <v>1.05</v>
+        <v>0.365</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>1.05</v>
+        <v>0.365</v>
       </c>
       <c r="AG18">
-        <v>1.05</v>
+        <v>0.365</v>
       </c>
       <c r="AH18">
-        <v>0.4069767441860465</v>
+        <v>0.08558030480656507</v>
       </c>
       <c r="AI18">
-        <v>0.2505966587112172</v>
+        <v>0.2091690544412607</v>
       </c>
       <c r="AJ18">
-        <v>0.4069767441860465</v>
+        <v>0.08558030480656507</v>
       </c>
       <c r="AK18">
-        <v>0.2505966587112172</v>
+        <v>0.2091690544412607</v>
       </c>
       <c r="AL18">
-        <v>0.094</v>
+        <v>0.029</v>
       </c>
       <c r="AM18">
-        <v>0.051</v>
+        <v>0.02</v>
       </c>
       <c r="AN18">
-        <v>-9.130434782608695</v>
+        <v>5.140845070422536</v>
       </c>
       <c r="AO18">
-        <v>-1.234042553191489</v>
+        <v>-0.4482758620689655</v>
       </c>
       <c r="AP18">
-        <v>-9.130434782608695</v>
+        <v>5.140845070422536</v>
       </c>
       <c r="AQ18">
-        <v>-2.274509803921569</v>
+        <v>-0.6499999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -2731,7 +2683,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Devoran S.A. (WSE:DEV)</t>
+          <t>Magna Polonia S.A. (WSE:06N)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2739,26 +2691,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D19">
-        <v>0.469</v>
-      </c>
       <c r="G19">
-        <v>0.6170212765957447</v>
+        <v>0.13046875</v>
       </c>
       <c r="H19">
-        <v>0.6170212765957447</v>
+        <v>0.07734375</v>
       </c>
       <c r="I19">
-        <v>-0.3085106382978723</v>
+        <v>-0.07734375</v>
       </c>
       <c r="J19">
-        <v>-0.3085106382978723</v>
+        <v>-0.06262790376106195</v>
       </c>
       <c r="K19">
-        <v>-0.055</v>
+        <v>0.857</v>
       </c>
       <c r="L19">
-        <v>-0.5851063829787234</v>
+        <v>0.66953125</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2767,7 +2716,7 @@
         <v>-0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P19">
         <v>-0</v>
@@ -2776,79 +2725,76 @@
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.017</v>
+        <v>0.204</v>
       </c>
       <c r="V19">
-        <v>0.05396825396825397</v>
+        <v>0.03578947368421052</v>
       </c>
       <c r="W19">
-        <v>-0.03928571428571429</v>
+        <v>0.1660852713178294</v>
       </c>
       <c r="X19">
-        <v>0.05235614419540459</v>
+        <v>0.04024494238131464</v>
       </c>
       <c r="Y19">
-        <v>-0.09164185848111889</v>
+        <v>0.1258403289365148</v>
       </c>
       <c r="Z19">
-        <v>0.07389937106918239</v>
+        <v>0.2532146389713156</v>
       </c>
       <c r="AA19">
-        <v>-0.02279874213836478</v>
+        <v>-0.0158583020403876</v>
       </c>
       <c r="AB19">
-        <v>0.05235614419540459</v>
+        <v>0.04076369565706216</v>
       </c>
       <c r="AC19">
-        <v>-0.07515488633376938</v>
+        <v>-0.05662199769744976</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="AG19">
-        <v>-0.017</v>
+        <v>-0.09199999999999998</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>0.01927047487955953</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>0.01693889897156685</v>
       </c>
       <c r="AJ19">
-        <v>-0.05704697986577182</v>
+        <v>-0.01640513552068473</v>
       </c>
       <c r="AK19">
-        <v>-0.01401483924154988</v>
+        <v>-0.01435705368289638</v>
       </c>
       <c r="AL19">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0.023</v>
+        <v>-0.347</v>
       </c>
       <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>-0.90625</v>
+        <v>-1.6</v>
       </c>
       <c r="AP19">
-        <v>-0.326923076923077</v>
+        <v>1.314285714285714</v>
       </c>
       <c r="AQ19">
-        <v>-1.260869565217391</v>
+        <v>0.2853025936599424</v>
       </c>
     </row>
     <row r="20">
@@ -2859,7 +2805,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Capital Partners S.A. (WSE:CPA)</t>
+          <t>Blumerang Investors S.A. (WSE:BLU)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2868,25 +2814,25 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.407</v>
+        <v>-0.675</v>
       </c>
       <c r="G20">
-        <v>-0.2324621733149931</v>
+        <v>-19.5</v>
       </c>
       <c r="H20">
-        <v>-0.2324621733149931</v>
+        <v>-19.5</v>
       </c>
       <c r="I20">
-        <v>-0.3810178817056397</v>
+        <v>-23.5</v>
       </c>
       <c r="J20">
-        <v>-0.3810178817056397</v>
+        <v>-23.5</v>
       </c>
       <c r="K20">
-        <v>-3.65</v>
+        <v>-2.29</v>
       </c>
       <c r="L20">
-        <v>-5.020632737276479</v>
+        <v>-1145</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2910,70 +2856,73 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.27</v>
+        <v>0.003</v>
       </c>
       <c r="V20">
-        <v>0.2321755027422304</v>
+        <v>0.000196078431372549</v>
       </c>
       <c r="W20">
-        <v>-0.28515625</v>
+        <v>-1.908333333333333</v>
       </c>
       <c r="X20">
-        <v>0.05336755812967245</v>
+        <v>0.04172751214455385</v>
       </c>
       <c r="Y20">
-        <v>-0.3385238081296724</v>
+        <v>-1.950060845477887</v>
       </c>
       <c r="Z20">
-        <v>0.06171477079796264</v>
+        <v>0.0007342143906020558</v>
       </c>
       <c r="AA20">
-        <v>-0.0235144312393888</v>
+        <v>-0.01725403817914831</v>
       </c>
       <c r="AB20">
-        <v>0.05264451037747483</v>
+        <v>0.04088758570619855</v>
       </c>
       <c r="AC20">
-        <v>-0.07615894161686362</v>
+        <v>-0.05814162388534685</v>
       </c>
       <c r="AD20">
-        <v>0.206</v>
+        <v>1.22</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.206</v>
+        <v>1.22</v>
       </c>
       <c r="AG20">
-        <v>-1.064</v>
+        <v>1.217</v>
       </c>
       <c r="AH20">
-        <v>0.03629316420014094</v>
+        <v>0.07384987893462469</v>
       </c>
       <c r="AI20">
-        <v>0.02483124397299903</v>
+        <v>1.095152603231598</v>
       </c>
       <c r="AJ20">
-        <v>-0.2414888788016342</v>
+        <v>0.0736816613186414</v>
       </c>
       <c r="AK20">
-        <v>-0.1514375177910618</v>
+        <v>1.095409540954096</v>
       </c>
       <c r="AL20">
-        <v>0.008999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>0.08700000000000001</v>
       </c>
       <c r="AN20">
-        <v>-0.7715355805243445</v>
+        <v>-31.28205128205128</v>
       </c>
       <c r="AO20">
-        <v>-30.77777777777778</v>
+        <v>-0.47</v>
       </c>
       <c r="AP20">
-        <v>3.98501872659176</v>
+        <v>-31.20512820512821</v>
+      </c>
+      <c r="AQ20">
+        <v>-0.5402298850574713</v>
       </c>
     </row>
     <row r="21">
@@ -2984,7 +2933,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Black Pearl S.A. (WSE:BPC)</t>
+          <t>ABS Investment SA (WSE:AIN)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2992,35 +2941,35 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D21">
-        <v>1.109</v>
+      <c r="E21">
+        <v>0.396</v>
       </c>
       <c r="G21">
-        <v>-0.08399999999999999</v>
+        <v>-0.728813559322034</v>
       </c>
       <c r="H21">
-        <v>-0.08399999999999999</v>
+        <v>-0.728813559322034</v>
       </c>
       <c r="I21">
-        <v>-0.0876</v>
+        <v>-0.4576271186440679</v>
       </c>
       <c r="J21">
-        <v>-0.0876</v>
+        <v>-0.3381462307637757</v>
       </c>
       <c r="K21">
-        <v>-0.239</v>
+        <v>1.72</v>
       </c>
       <c r="L21">
-        <v>-0.09559999999999999</v>
+        <v>9.717514124293785</v>
       </c>
       <c r="M21">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="N21">
-        <v>-0</v>
+        <v>0.0003225806451612903</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.0005813953488372093</v>
       </c>
       <c r="P21">
         <v>-0</v>
@@ -3029,79 +2978,82 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.001</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.003</v>
+        <v>0.392</v>
       </c>
       <c r="V21">
-        <v>0.001388888888888889</v>
+        <v>0.1264516129032258</v>
       </c>
       <c r="W21">
-        <v>-0.03182423435419441</v>
+        <v>0.6394052044609665</v>
       </c>
       <c r="X21">
-        <v>0.05429577863083576</v>
+        <v>0.04923128508714723</v>
       </c>
       <c r="Y21">
-        <v>-0.08612001298503016</v>
+        <v>0.5901739193738192</v>
       </c>
       <c r="Z21">
-        <v>0.3332888948140248</v>
+        <v>0.04732620320855614</v>
       </c>
       <c r="AA21">
-        <v>-0.02919610718570858</v>
+        <v>-0.01600317723133377</v>
       </c>
       <c r="AB21">
-        <v>0.05309865759755258</v>
+        <v>0.04305576675163645</v>
       </c>
       <c r="AC21">
-        <v>-0.08229476478326116</v>
+        <v>-0.05905894398297021</v>
       </c>
       <c r="AD21">
-        <v>0.156</v>
+        <v>1.19</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.156</v>
+        <v>1.19</v>
       </c>
       <c r="AG21">
-        <v>0.153</v>
+        <v>0.7979999999999999</v>
       </c>
       <c r="AH21">
-        <v>0.06735751295336787</v>
+        <v>0.2773892773892774</v>
       </c>
       <c r="AI21">
-        <v>0.02390438247011952</v>
+        <v>0.2284069097888676</v>
       </c>
       <c r="AJ21">
-        <v>0.06614785992217898</v>
+        <v>0.2047203694202155</v>
       </c>
       <c r="AK21">
-        <v>0.02345546527671317</v>
+        <v>0.1656288916562889</v>
       </c>
       <c r="AL21">
-        <v>0.017</v>
+        <v>0.133</v>
       </c>
       <c r="AM21">
-        <v>0.017</v>
+        <v>0.103</v>
       </c>
       <c r="AN21">
-        <v>-0.7428571428571429</v>
+        <v>-14.69135802469136</v>
       </c>
       <c r="AO21">
-        <v>-12.88235294117647</v>
+        <v>-0.6090225563909775</v>
       </c>
       <c r="AP21">
-        <v>-0.7285714285714285</v>
+        <v>-9.851851851851851</v>
       </c>
       <c r="AQ21">
-        <v>-12.88235294117647</v>
+        <v>-0.7864077669902912</v>
       </c>
     </row>
     <row r="22">
@@ -3112,7 +3064,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tech Invest Group S.A. (WSE:TIG)</t>
+          <t>PunkPirates S.A. (WSE:PUN)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3121,25 +3073,25 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.225</v>
+        <v>-0.5479999999999999</v>
       </c>
       <c r="G22">
-        <v>-1.194444444444444</v>
+        <v>-4.966292134831461</v>
       </c>
       <c r="H22">
-        <v>-1.194444444444444</v>
+        <v>-4.966292134831461</v>
       </c>
       <c r="I22">
-        <v>-0.6805555555555556</v>
+        <v>-0.8539325842696629</v>
       </c>
       <c r="J22">
-        <v>-0.6805555555555556</v>
+        <v>-0.8539325842696629</v>
       </c>
       <c r="K22">
-        <v>-0.736</v>
+        <v>-0.712</v>
       </c>
       <c r="L22">
-        <v>-5.111111111111112</v>
+        <v>-8</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3163,73 +3115,73 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>0.03609865470852018</v>
       </c>
       <c r="W22">
-        <v>-0.4329411764705882</v>
+        <v>-0.4910344827586207</v>
       </c>
       <c r="X22">
-        <v>0.05235614419540459</v>
+        <v>0.04056228504454691</v>
       </c>
       <c r="Y22">
-        <v>-0.4852973206659928</v>
+        <v>-0.5315967678031676</v>
       </c>
       <c r="Z22">
-        <v>0.07291139240506328</v>
+        <v>0.03891560996939222</v>
       </c>
       <c r="AA22">
-        <v>-0.04962025316455696</v>
+        <v>-0.03323130738959335</v>
       </c>
       <c r="AB22">
-        <v>0.05235614419540459</v>
+        <v>0.0405200050902127</v>
       </c>
       <c r="AC22">
-        <v>-0.1019763973599616</v>
+        <v>-0.07375131247980604</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.03148751357220413</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.1504149377593361</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>-0.003600360036003604</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>-0.01992528019925282</v>
       </c>
       <c r="AL22">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="AM22">
-        <v>0.029</v>
+        <v>-0.305</v>
       </c>
       <c r="AN22">
-        <v>-0</v>
+        <v>-1.986301369863014</v>
       </c>
       <c r="AO22">
-        <v>-2.722222222222222</v>
+        <v>-2.054054054054054</v>
       </c>
       <c r="AP22">
-        <v>-0</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="AQ22">
-        <v>-3.379310344827587</v>
+        <v>0.2491803278688524</v>
       </c>
     </row>
     <row r="23">
@@ -3240,7 +3192,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Open Finance S.A. (WSE:OPF)</t>
+          <t>Capital Partners S.A. (WSE:CPA)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3249,25 +3201,25 @@
         </is>
       </c>
       <c r="D23">
-        <v>-0.008229999999999999</v>
+        <v>-0.258</v>
       </c>
       <c r="G23">
-        <v>0.09009216589861752</v>
+        <v>-0.3946587537091988</v>
       </c>
       <c r="H23">
-        <v>0.09009216589861752</v>
+        <v>-0.3946587537091988</v>
       </c>
       <c r="I23">
-        <v>-0.03456221198156682</v>
+        <v>-0.3560830860534124</v>
       </c>
       <c r="J23">
-        <v>-0.03456221198156682</v>
+        <v>-0.3560830860534124</v>
       </c>
       <c r="K23">
-        <v>-40.3</v>
+        <v>-0.383</v>
       </c>
       <c r="L23">
-        <v>-0.4642857142857142</v>
+        <v>-0.5682492581602374</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3291,73 +3243,73 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2.2</v>
+        <v>0.311</v>
       </c>
       <c r="V23">
-        <v>0.716612377850163</v>
+        <v>0.06895787139689578</v>
       </c>
       <c r="W23">
-        <v>-0.3958742632612967</v>
+        <v>-0.0473423980222497</v>
       </c>
       <c r="X23">
-        <v>0.4031524698015729</v>
+        <v>0.04042756675193453</v>
       </c>
       <c r="Y23">
-        <v>-0.7990267330628695</v>
+        <v>-0.08776996477418422</v>
       </c>
       <c r="Z23">
-        <v>1.140754369825207</v>
+        <v>0.09693657414065872</v>
       </c>
       <c r="AA23">
-        <v>-0.03942699434879749</v>
+        <v>-0.03451747447145118</v>
       </c>
       <c r="AB23">
-        <v>0.06914154551263682</v>
+        <v>0.04007306918322482</v>
       </c>
       <c r="AC23">
-        <v>-0.1085685398614343</v>
+        <v>-0.07459054365467599</v>
       </c>
       <c r="AD23">
-        <v>40.1</v>
+        <v>0.122</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>40.1</v>
+        <v>0.122</v>
       </c>
       <c r="AG23">
-        <v>37.9</v>
+        <v>-0.189</v>
       </c>
       <c r="AH23">
-        <v>0.9288858003242992</v>
+        <v>0.02633851468048359</v>
       </c>
       <c r="AI23">
-        <v>0.4297963558413719</v>
+        <v>0.0149840334070253</v>
       </c>
       <c r="AJ23">
-        <v>0.9250671222845985</v>
+        <v>-0.04373987502892849</v>
       </c>
       <c r="AK23">
-        <v>0.41602634467618</v>
+        <v>-0.02413484867832972</v>
       </c>
       <c r="AL23">
-        <v>1.92</v>
+        <v>0.006</v>
       </c>
       <c r="AM23">
-        <v>1.901</v>
+        <v>-0.006</v>
       </c>
       <c r="AN23">
-        <v>18.06306306306306</v>
+        <v>-0.5169491525423729</v>
       </c>
       <c r="AO23">
-        <v>-1.5625</v>
+        <v>-40</v>
       </c>
       <c r="AP23">
-        <v>17.07207207207207</v>
+        <v>0.8008474576271187</v>
       </c>
       <c r="AQ23">
-        <v>-1.578116780641768</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -3368,7 +3320,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Invista S.A. (WSE:INV)</t>
+          <t>Carpathia Capital S.A. (WSE:CRC)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3376,116 +3328,95 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D24">
-        <v>-0.0289</v>
-      </c>
-      <c r="G24">
-        <v>-104</v>
-      </c>
-      <c r="H24">
-        <v>-104</v>
-      </c>
-      <c r="I24">
-        <v>-104.3333333333333</v>
-      </c>
-      <c r="J24">
-        <v>-104.3333333333333</v>
+      <c r="E24">
+        <v>1.975</v>
       </c>
       <c r="K24">
-        <v>-3.11</v>
-      </c>
-      <c r="L24">
-        <v>-345.5555555555555</v>
+        <v>1.47</v>
       </c>
       <c r="M24">
-        <v>-0</v>
+        <v>0.08463000000000001</v>
       </c>
       <c r="N24">
-        <v>-0</v>
+        <v>0.01089189189189189</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.05757142857142858</v>
       </c>
       <c r="P24">
-        <v>-0</v>
+        <v>0.08463000000000001</v>
       </c>
       <c r="Q24">
-        <v>-0</v>
+        <v>0.01089189189189189</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.05757142857142858</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
-        <v>0.057</v>
+        <v>0.445</v>
       </c>
       <c r="V24">
-        <v>0.04913793103448277</v>
+        <v>0.05727155727155728</v>
       </c>
       <c r="W24">
-        <v>-0.2468253968253968</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="X24">
-        <v>0.07152611211693385</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y24">
-        <v>-0.3183515089423307</v>
+        <v>0.5278074224433872</v>
       </c>
       <c r="Z24">
-        <v>0.0006921479658540336</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-0.0722141044374375</v>
+        <v>-0.05901901901901903</v>
       </c>
       <c r="AB24">
-        <v>0.05364123859707834</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC24">
-        <v>-0.1258553430345158</v>
+        <v>-0.09877916414319934</v>
       </c>
       <c r="AD24">
-        <v>0.828</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.828</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.7709999999999999</v>
+        <v>-0.445</v>
       </c>
       <c r="AH24">
-        <v>0.4164989939637827</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0.08773045136681501</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0.3992749870533402</v>
+        <v>-0.06075085324232082</v>
       </c>
       <c r="AK24">
-        <v>0.08218740006395905</v>
+        <v>-0.1217510259917921</v>
       </c>
       <c r="AL24">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>-0.004</v>
-      </c>
-      <c r="AN24">
-        <v>-0.8846153846153845</v>
-      </c>
-      <c r="AO24">
-        <v>-156.5</v>
-      </c>
-      <c r="AP24">
-        <v>-0.8237179487179486</v>
+        <v>-0.029</v>
       </c>
       <c r="AQ24">
-        <v>234.75</v>
+        <v>4.413793103448276</v>
       </c>
     </row>
     <row r="25">
@@ -3496,7 +3427,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BBI Development S.A. (WSE:BBD)</t>
+          <t>Open Finance S.A. (WSE:OPF)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3505,34 +3436,34 @@
         </is>
       </c>
       <c r="D25">
-        <v>-0.189</v>
+        <v>-0.0721</v>
       </c>
       <c r="G25">
-        <v>-1.493670886075949</v>
+        <v>0.001664050235478807</v>
       </c>
       <c r="H25">
-        <v>-1.493670886075949</v>
+        <v>0.001664050235478807</v>
       </c>
       <c r="I25">
-        <v>-1.962025316455696</v>
+        <v>-0.04646781789638933</v>
       </c>
       <c r="J25">
-        <v>-1.962025316455696</v>
+        <v>-0.04646781789638933</v>
       </c>
       <c r="K25">
-        <v>-5.92</v>
+        <v>-39.4</v>
       </c>
       <c r="L25">
-        <v>-1.873417721518987</v>
+        <v>-0.618524332810047</v>
       </c>
       <c r="M25">
-        <v>0.193</v>
+        <v>-0</v>
       </c>
       <c r="N25">
-        <v>0.01556451612903226</v>
+        <v>-0</v>
       </c>
       <c r="O25">
-        <v>-0.03260135135135135</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>-0</v>
@@ -3544,79 +3475,76 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.193</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1.86</v>
+        <v>0.585</v>
       </c>
       <c r="V25">
-        <v>0.15</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="W25">
-        <v>-0.1184</v>
+        <v>-0.7406015037593985</v>
       </c>
       <c r="X25">
-        <v>0.1054193443210339</v>
+        <v>0.3702962342145714</v>
       </c>
       <c r="Y25">
-        <v>-0.223819344321034</v>
+        <v>-1.11089773797397</v>
       </c>
       <c r="Z25">
-        <v>0.04074790457769181</v>
+        <v>1.012718600953895</v>
       </c>
       <c r="AA25">
-        <v>-0.07994842037395229</v>
+        <v>-0.04705882352941176</v>
       </c>
       <c r="AB25">
-        <v>0.05763159056200191</v>
+        <v>0.06221603944179221</v>
       </c>
       <c r="AC25">
-        <v>-0.1375800109359542</v>
+        <v>-0.109274862971204</v>
       </c>
       <c r="AD25">
-        <v>24.5</v>
+        <v>42.2</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>24.5</v>
+        <v>42.2</v>
       </c>
       <c r="AG25">
-        <v>22.64</v>
+        <v>41.615</v>
       </c>
       <c r="AH25">
-        <v>0.6639566395663957</v>
+        <v>0.9305402425578831</v>
       </c>
       <c r="AI25">
-        <v>0.3651266766020865</v>
+        <v>0.7275862068965517</v>
       </c>
       <c r="AJ25">
-        <v>0.6461187214611872</v>
+        <v>0.9296325254104769</v>
       </c>
       <c r="AK25">
-        <v>0.3470263641937461</v>
+        <v>0.7248105895671862</v>
       </c>
       <c r="AL25">
-        <v>3.49</v>
+        <v>1.89</v>
       </c>
       <c r="AM25">
-        <v>2.834</v>
+        <v>1.889</v>
       </c>
       <c r="AN25">
-        <v>-3.990228013029316</v>
+        <v>-125.5952380952381</v>
       </c>
       <c r="AO25">
-        <v>-1.776504297994269</v>
+        <v>-1.566137566137566</v>
       </c>
       <c r="AP25">
-        <v>-3.687296416938111</v>
+        <v>-123.8541666666667</v>
       </c>
       <c r="AQ25">
-        <v>-2.187720536344389</v>
+        <v>-1.566966649020646</v>
       </c>
     </row>
     <row r="26">
@@ -3627,7 +3555,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IFM Global Funds S.A. (WSE:IFM)</t>
+          <t>Agencja Rozwoju Innowacji Spólka Akcyjna (WSE:ARI)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3636,25 +3564,25 @@
         </is>
       </c>
       <c r="D26">
-        <v>-0.188</v>
+        <v>-0.121</v>
       </c>
       <c r="G26">
-        <v>0.09333333333333334</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="H26">
-        <v>0.09333333333333334</v>
+        <v>-0.9299999999999999</v>
       </c>
       <c r="I26">
-        <v>-0.136</v>
+        <v>-1.02</v>
       </c>
       <c r="J26">
-        <v>-0.136</v>
+        <v>-1.02</v>
       </c>
       <c r="K26">
-        <v>-0.063</v>
+        <v>-0.284</v>
       </c>
       <c r="L26">
-        <v>-0.168</v>
+        <v>-1.42</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3678,70 +3606,73 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.005729166666666666</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-0.1131059245960503</v>
+        <v>-0.1203389830508474</v>
       </c>
       <c r="X26">
-        <v>0.05235614419540459</v>
+        <v>0.04054801341571164</v>
       </c>
       <c r="Y26">
-        <v>-0.1654620687914549</v>
+        <v>-0.1608869964665591</v>
       </c>
       <c r="Z26">
-        <v>0.6744604316546762</v>
+        <v>0.08309098462816784</v>
       </c>
       <c r="AA26">
-        <v>-0.09172661870503596</v>
+        <v>-0.08475280432073119</v>
       </c>
       <c r="AB26">
-        <v>0.05235614419540459</v>
+        <v>0.04050690405631558</v>
       </c>
       <c r="AC26">
-        <v>-0.1440827629004405</v>
+        <v>-0.1252597083770468</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AG26">
-        <v>-0.011</v>
+        <v>0.038</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>0.03094462540716612</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>-0.1557377049180328</v>
       </c>
       <c r="AJ26">
-        <v>-0.005762179151388161</v>
+        <v>0.03094462540716612</v>
       </c>
       <c r="AK26">
-        <v>-0.02511415525114155</v>
+        <v>-0.1557377049180328</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AM26">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="AN26">
-        <v>-0</v>
+        <v>-0.1928934010152284</v>
+      </c>
+      <c r="AO26">
+        <v>-34</v>
       </c>
       <c r="AP26">
-        <v>0.3666666666666666</v>
+        <v>-0.1928934010152284</v>
       </c>
       <c r="AQ26">
-        <v>5.1</v>
+        <v>-40.8</v>
       </c>
     </row>
     <row r="27">
@@ -3752,7 +3683,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IQ Partners Spolka Akcyjna (WSE:IQP)</t>
+          <t>BBI Development S.A. (WSE:BBD)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3761,34 +3692,34 @@
         </is>
       </c>
       <c r="D27">
-        <v>-0.515</v>
+        <v>1.062</v>
       </c>
       <c r="G27">
-        <v>-3.636363636363637</v>
+        <v>-0.5141509433962265</v>
       </c>
       <c r="H27">
-        <v>-3.636363636363637</v>
+        <v>-0.5141509433962265</v>
       </c>
       <c r="I27">
-        <v>-3.811688311688311</v>
+        <v>-0.2910377358490566</v>
       </c>
       <c r="J27">
-        <v>-3.811688311688311</v>
+        <v>-0.2910377358490566</v>
       </c>
       <c r="K27">
-        <v>-0.571</v>
+        <v>-8.43</v>
       </c>
       <c r="L27">
-        <v>-3.707792207792207</v>
+        <v>-0.3976415094339623</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>0.053</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.005247524752475248</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>-0.006287069988137604</v>
       </c>
       <c r="P27">
         <v>-0</v>
@@ -3800,76 +3731,79 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.053</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>0.015</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="V27">
-        <v>0.01504513540621866</v>
+        <v>0.09277227722772279</v>
       </c>
       <c r="W27">
-        <v>-0.2706161137440758</v>
+        <v>-0.21075</v>
       </c>
       <c r="X27">
-        <v>0.07530671413736308</v>
+        <v>0.0910598548828246</v>
       </c>
       <c r="Y27">
-        <v>-0.3459228278814389</v>
+        <v>-0.3018098548828246</v>
       </c>
       <c r="Z27">
-        <v>0.03998961308750974</v>
+        <v>0.3741616660783622</v>
       </c>
       <c r="AA27">
-        <v>-0.1524279407945988</v>
+        <v>-0.1088951641369573</v>
       </c>
       <c r="AB27">
-        <v>0.07188001596790555</v>
+        <v>0.04417274779967879</v>
       </c>
       <c r="AC27">
-        <v>-0.2243079567625043</v>
+        <v>-0.1530679119366361</v>
       </c>
       <c r="AD27">
-        <v>0.852</v>
+        <v>21</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.852</v>
+        <v>21</v>
       </c>
       <c r="AG27">
-        <v>0.837</v>
+        <v>20.063</v>
       </c>
       <c r="AH27">
-        <v>0.4607896160086533</v>
+        <v>0.67524115755627</v>
       </c>
       <c r="AI27">
-        <v>0.3701129452649869</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AJ27">
-        <v>0.4563794983642311</v>
+        <v>0.6651526704903359</v>
       </c>
       <c r="AK27">
-        <v>0.3659816353301268</v>
+        <v>0.3597905421157398</v>
       </c>
       <c r="AL27">
-        <v>0.047</v>
+        <v>1.06</v>
       </c>
       <c r="AM27">
-        <v>-0.03899999999999999</v>
+        <v>0.5880000000000001</v>
       </c>
       <c r="AN27">
-        <v>-1.453924914675768</v>
+        <v>-3.639514731369151</v>
       </c>
       <c r="AO27">
-        <v>-12.48936170212766</v>
+        <v>-5.820754716981131</v>
       </c>
       <c r="AP27">
-        <v>-1.428327645051195</v>
+        <v>-3.477123050259965</v>
       </c>
       <c r="AQ27">
-        <v>15.05128205128205</v>
+        <v>-10.49319727891156</v>
       </c>
     </row>
     <row r="28">
@@ -3880,7 +3814,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Baltic Bridge Spólka Akcyjna (WSE:WIS)</t>
+          <t>Soho Development S.A. (WSE:SHD)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3889,25 +3823,25 @@
         </is>
       </c>
       <c r="D28">
-        <v>-0.8129999999999999</v>
+        <v>-0.323</v>
       </c>
       <c r="G28">
-        <v>-1137.5</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="H28">
-        <v>-1137.5</v>
+        <v>0.8203883495145631</v>
       </c>
       <c r="I28">
-        <v>-949.9999999999999</v>
+        <v>-0.233252427184466</v>
       </c>
       <c r="J28">
-        <v>-949.9999999999999</v>
+        <v>-0.233252427184466</v>
       </c>
       <c r="K28">
-        <v>-44.9</v>
+        <v>-1.23</v>
       </c>
       <c r="L28">
-        <v>-2806.25</v>
+        <v>-0.2985436893203883</v>
       </c>
       <c r="M28">
         <v>-0</v>
@@ -3931,70 +3865,73 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0.008999999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="V28">
-        <v>0.01417322834645669</v>
+        <v>0.2938496583143508</v>
       </c>
       <c r="W28">
-        <v>-0.91260162601626</v>
+        <v>-0.1324004305705059</v>
       </c>
       <c r="X28">
-        <v>0.05235614419540459</v>
+        <v>0.04058069563953011</v>
       </c>
       <c r="Y28">
-        <v>-0.9649577702116646</v>
+        <v>-0.172981126210036</v>
       </c>
       <c r="Z28">
-        <v>0.0003252759763361727</v>
+        <v>0.48527679623086</v>
       </c>
       <c r="AA28">
-        <v>-0.3090121775193641</v>
+        <v>-0.1131919905771496</v>
       </c>
       <c r="AB28">
-        <v>0.05235614419540459</v>
+        <v>0.04025153214975739</v>
       </c>
       <c r="AC28">
-        <v>-0.3613683217147686</v>
+        <v>-0.153443522726907</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="AG28">
-        <v>-0.008999999999999999</v>
+        <v>-1.144</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>0.03218694885361552</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.01897089397089397</v>
       </c>
       <c r="AJ28">
-        <v>-0.01437699680511182</v>
+        <v>-0.352433764633395</v>
       </c>
       <c r="AK28">
-        <v>-0.01323529411764706</v>
+        <v>-0.1785825788323447</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM28">
-        <v>-0.269</v>
+        <v>-0.05</v>
       </c>
       <c r="AN28">
-        <v>-0</v>
+        <v>-0.155154091392136</v>
+      </c>
+      <c r="AO28">
+        <v>-961</v>
       </c>
       <c r="AP28">
-        <v>0.0005921052631578947</v>
+        <v>1.215727948990436</v>
       </c>
       <c r="AQ28">
-        <v>56.50557620817843</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="29">
@@ -4005,7 +3942,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Adiuvo Investments S.A. (WSE:ADV)</t>
+          <t>Tech Invest Group S.A. (WSE:TIG)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4013,23 +3950,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D29">
+        <v>-0.0708</v>
+      </c>
       <c r="G29">
-        <v>-14.85714285714286</v>
+        <v>-1.112068965517241</v>
       </c>
       <c r="H29">
-        <v>-17.1957671957672</v>
+        <v>-1.112068965517241</v>
       </c>
       <c r="I29">
-        <v>-10.63492063492063</v>
+        <v>-0.8965517241379309</v>
       </c>
       <c r="J29">
-        <v>-10.63492063492063</v>
+        <v>-0.8965517241379309</v>
       </c>
       <c r="K29">
-        <v>-4.65</v>
+        <v>-0.486</v>
       </c>
       <c r="L29">
-        <v>-12.3015873015873</v>
+        <v>-4.189655172413793</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -4053,73 +3993,73 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0.105</v>
+        <v>0.03</v>
       </c>
       <c r="V29">
-        <v>0.00546875</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="W29">
-        <v>-0.5535714285714286</v>
+        <v>-0.5855421686746988</v>
       </c>
       <c r="X29">
-        <v>0.05621676273515701</v>
+        <v>0.04072780560683806</v>
       </c>
       <c r="Y29">
-        <v>-0.6097881913065856</v>
+        <v>-0.6262699742815369</v>
       </c>
       <c r="Z29">
-        <v>0.03260025873221216</v>
+        <v>0.1397590361445783</v>
       </c>
       <c r="AA29">
-        <v>-0.3467011642949547</v>
+        <v>-0.1253012048192771</v>
       </c>
       <c r="AB29">
-        <v>0.0537416074119388</v>
+        <v>0.04033630426595862</v>
       </c>
       <c r="AC29">
-        <v>-0.4004427717068935</v>
+        <v>-0.1656375090852357</v>
       </c>
       <c r="AD29">
-        <v>2.76</v>
+        <v>0.553</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>2.76</v>
+        <v>0.553</v>
       </c>
       <c r="AG29">
-        <v>2.655</v>
+        <v>0.523</v>
       </c>
       <c r="AH29">
-        <v>0.1256830601092896</v>
+        <v>0.03773971200436771</v>
       </c>
       <c r="AI29">
-        <v>0.1707920792079208</v>
+        <v>0.5952637244348762</v>
       </c>
       <c r="AJ29">
-        <v>0.1214824982841455</v>
+        <v>0.03576557477945702</v>
       </c>
       <c r="AK29">
-        <v>0.165369043911554</v>
+        <v>0.5817575083426029</v>
       </c>
       <c r="AL29">
-        <v>0.135</v>
+        <v>0.037</v>
       </c>
       <c r="AM29">
-        <v>0.135</v>
+        <v>0.033</v>
       </c>
       <c r="AN29">
-        <v>-0.7131782945736433</v>
+        <v>-5.421568627450982</v>
       </c>
       <c r="AO29">
-        <v>-29.77777777777777</v>
+        <v>-2.810810810810811</v>
       </c>
       <c r="AP29">
-        <v>-0.6860465116279069</v>
+        <v>-5.127450980392157</v>
       </c>
       <c r="AQ29">
-        <v>-29.77777777777777</v>
+        <v>-3.151515151515151</v>
       </c>
     </row>
     <row r="30">
@@ -4130,7 +4070,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Private Equity Managers SA (WSE:PEM)</t>
+          <t>Adiuvo Investments S.A. (WSE:ADV)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4138,116 +4078,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D30">
+        <v>-0.0815</v>
+      </c>
       <c r="G30">
-        <v>0.3794642857142858</v>
+        <v>-9.643410852713178</v>
       </c>
       <c r="H30">
-        <v>0.3794642857142858</v>
+        <v>-10.38759689922481</v>
       </c>
       <c r="I30">
-        <v>0.2428571428571429</v>
+        <v>-9.496124031007753</v>
       </c>
       <c r="J30">
-        <v>0.1596560846560847</v>
+        <v>-9.496124031007753</v>
       </c>
       <c r="K30">
-        <v>1.42</v>
+        <v>-2.76</v>
       </c>
       <c r="L30">
-        <v>0.1267857142857143</v>
+        <v>-10.69767441860465</v>
       </c>
       <c r="M30">
-        <v>2.5</v>
+        <v>-0</v>
       </c>
       <c r="N30">
-        <v>0.2828054298642534</v>
+        <v>-0</v>
       </c>
       <c r="O30">
-        <v>1.76056338028169</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>2.5</v>
+        <v>-0</v>
       </c>
       <c r="Q30">
-        <v>0.2828054298642534</v>
+        <v>-0</v>
       </c>
       <c r="R30">
-        <v>1.76056338028169</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
-        <v>2.15</v>
+        <v>0.204</v>
       </c>
       <c r="V30">
-        <v>0.2432126696832579</v>
+        <v>0.01259259259259259</v>
       </c>
       <c r="W30">
-        <v>0.1352380952380952</v>
+        <v>-0.2732673267326732</v>
       </c>
       <c r="X30">
-        <v>0.09428141340538562</v>
+        <v>0.0489286488065586</v>
       </c>
       <c r="Y30">
-        <v>0.04095668183270962</v>
+        <v>-0.3221959755392318</v>
       </c>
       <c r="Z30">
-        <v>-2.986666666666664</v>
+        <v>0.02022736181889455</v>
       </c>
       <c r="AA30">
-        <v>-0.4768395061728391</v>
+        <v>-0.1920815366522932</v>
       </c>
       <c r="AB30">
-        <v>0.05719922993636999</v>
+        <v>0.04297899047609875</v>
       </c>
       <c r="AC30">
-        <v>-0.534038736109209</v>
+        <v>-0.235060527128392</v>
       </c>
       <c r="AD30">
-        <v>13.8</v>
+        <v>6.02</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>13.8</v>
+        <v>6.02</v>
       </c>
       <c r="AG30">
-        <v>11.65</v>
+        <v>5.816</v>
       </c>
       <c r="AH30">
-        <v>0.6095406360424028</v>
+        <v>0.2709270927092709</v>
       </c>
       <c r="AI30">
-        <v>0.552</v>
+        <v>0.4048419636852724</v>
       </c>
       <c r="AJ30">
-        <v>0.5685700341630063</v>
+        <v>0.264171511627907</v>
       </c>
       <c r="AK30">
-        <v>0.5098468271334792</v>
+        <v>0.396563480158189</v>
       </c>
       <c r="AL30">
-        <v>0.5629999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="AM30">
-        <v>0.5429999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="AN30">
-        <v>4.554455445544555</v>
+        <v>-2.457142857142857</v>
       </c>
       <c r="AO30">
-        <v>4.83126110124334</v>
+        <v>-10.20833333333333</v>
       </c>
       <c r="AP30">
-        <v>3.844884488448845</v>
+        <v>-2.373877551020408</v>
       </c>
       <c r="AQ30">
-        <v>5.009208103130756</v>
+        <v>-11.66666666666667</v>
       </c>
     </row>
     <row r="31">
@@ -4258,7 +4198,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Venture Capital Poland S.A. (WSE:VCP)</t>
+          <t>Baltic Bridge Spólka Akcyjna (WSE:WIS)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4266,26 +4206,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D31">
-        <v>-0.029</v>
-      </c>
-      <c r="G31">
-        <v>-3.166666666666667</v>
-      </c>
-      <c r="H31">
-        <v>-3.166666666666667</v>
-      </c>
-      <c r="I31">
-        <v>-2.833333333333333</v>
-      </c>
-      <c r="J31">
-        <v>-2.833333333333333</v>
-      </c>
       <c r="K31">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L31">
-        <v>-5.833333333333334</v>
+        <v>-0.154</v>
       </c>
       <c r="M31">
         <v>-0</v>
@@ -4309,67 +4231,73 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="V31">
-        <v>0.01973684210526316</v>
+        <v>0.003862660944206008</v>
       </c>
       <c r="W31">
-        <v>5.833333333333334</v>
+        <v>-0.2235123367198839</v>
       </c>
       <c r="X31">
-        <v>0.06631444463661472</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y31">
-        <v>5.767018888696719</v>
+        <v>-0.2632724818440642</v>
       </c>
       <c r="Z31">
-        <v>0.2926829268292683</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-0.8292682926829269</v>
+        <v>-0.2205882352941177</v>
       </c>
       <c r="AB31">
-        <v>0.07515686708669672</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC31">
-        <v>-0.9044251597696236</v>
+        <v>-0.260348380418298</v>
       </c>
       <c r="AD31">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.076</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="AH31">
-        <v>0.341991341991342</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>-39.49999999999996</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.3333333333333334</v>
+        <v>-0.003877638948728996</v>
       </c>
       <c r="AK31">
-        <v>-15.19999999999999</v>
+        <v>-0.01630434782608695</v>
       </c>
       <c r="AL31">
-        <v>0.003</v>
+        <v>0.025</v>
       </c>
       <c r="AM31">
-        <v>0.003</v>
+        <v>0.025</v>
+      </c>
+      <c r="AN31">
+        <v>-0</v>
       </c>
       <c r="AO31">
-        <v>-11.33333333333333</v>
+        <v>-5.999999999999999</v>
+      </c>
+      <c r="AP31">
+        <v>0.06</v>
       </c>
       <c r="AQ31">
-        <v>-11.33333333333333</v>
+        <v>-5.999999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4380,7 +4308,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Grupa Trinity S.A. (WSE:GTY)</t>
+          <t>Foto Volt Eko Energia S.A. (WSE:FVE)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4388,23 +4316,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D32">
+        <v>-0.236</v>
+      </c>
       <c r="G32">
-        <v>0.5069637883008357</v>
+        <v>-1.482352941176471</v>
       </c>
       <c r="H32">
-        <v>0.5069637883008357</v>
+        <v>-1.482352941176471</v>
       </c>
       <c r="I32">
-        <v>1.013927576601671</v>
+        <v>-1.325490196078432</v>
       </c>
       <c r="J32">
-        <v>1.013927576601671</v>
+        <v>-1.325490196078432</v>
       </c>
       <c r="K32">
-        <v>-3.34</v>
+        <v>-0.311</v>
       </c>
       <c r="L32">
-        <v>0.9303621169916435</v>
+        <v>-1.219607843137255</v>
       </c>
       <c r="M32">
         <v>-0</v>
@@ -4428,67 +4359,70 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.005</v>
+        <v>0.032</v>
       </c>
       <c r="V32">
-        <v>0.01187648456057007</v>
+        <v>0.00545144804088586</v>
       </c>
       <c r="W32">
-        <v>-1.139931740614334</v>
+        <v>-0.6926503340757239</v>
       </c>
       <c r="X32">
-        <v>0.09018486329606655</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y32">
-        <v>-1.230116603910401</v>
+        <v>-0.7324104791999042</v>
       </c>
       <c r="Z32">
-        <v>-1.014697569248163</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="AA32">
-        <v>-1.028829847371396</v>
+        <v>-0.771689497716895</v>
       </c>
       <c r="AB32">
-        <v>0.05880280755168091</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC32">
-        <v>-1.087632654923077</v>
+        <v>-0.8114496428410753</v>
       </c>
       <c r="AD32">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.588</v>
+        <v>-0.032</v>
       </c>
       <c r="AH32">
-        <v>0.5848126232741617</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>-10.78181818181817</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.5827552031714569</v>
+        <v>-0.005481329222336417</v>
       </c>
       <c r="AK32">
-        <v>-9.79999999999999</v>
+        <v>-0.2601626016260163</v>
       </c>
       <c r="AL32">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>0.005999999999999998</v>
-      </c>
-      <c r="AO32">
-        <v>-67.4074074074074</v>
+        <v>-0.006</v>
+      </c>
+      <c r="AN32">
+        <v>-0</v>
+      </c>
+      <c r="AP32">
+        <v>0.09552238805970149</v>
       </c>
       <c r="AQ32">
-        <v>-606.6666666666669</v>
+        <v>56.33333333333334</v>
       </c>
     </row>
     <row r="33">
@@ -4499,7 +4433,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Agencja Rozwoju Innowacji Spólka Akcyjna (WSE:ARI)</t>
+          <t>Hydropress SE (WSE:AER)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4508,25 +4442,25 @@
         </is>
       </c>
       <c r="D33">
-        <v>-0.0368</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="G33">
-        <v>0.04330708661417323</v>
+        <v>-0.1765486725663717</v>
       </c>
       <c r="H33">
-        <v>0.04330708661417323</v>
+        <v>-0.1765486725663717</v>
       </c>
       <c r="I33">
-        <v>-0.9488188976377953</v>
+        <v>-0.2424778761061947</v>
       </c>
       <c r="J33">
-        <v>-0.9488188976377953</v>
+        <v>-0.2424778761061947</v>
       </c>
       <c r="K33">
-        <v>-0.272</v>
+        <v>-0.86</v>
       </c>
       <c r="L33">
-        <v>-1.070866141732284</v>
+        <v>-0.3805309734513275</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4556,67 +4490,67 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>-2.176</v>
+        <v>-10.61728395061728</v>
       </c>
       <c r="X33">
-        <v>0.0529073469943212</v>
+        <v>0.04705195464231531</v>
       </c>
       <c r="Y33">
-        <v>-2.228907346994321</v>
+        <v>-10.6643359052596</v>
       </c>
       <c r="Z33">
-        <v>1.239024390243902</v>
+        <v>10.27272727272727</v>
       </c>
       <c r="AA33">
-        <v>-1.175609756097561</v>
+        <v>-2.490909090909091</v>
       </c>
       <c r="AB33">
-        <v>0.05257783996153751</v>
+        <v>0.0432428037571464</v>
       </c>
       <c r="AC33">
-        <v>-1.228187596059098</v>
+        <v>-2.534151894666237</v>
       </c>
       <c r="AD33">
-        <v>0.047</v>
+        <v>0.232</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0.047</v>
+        <v>0.232</v>
       </c>
       <c r="AG33">
-        <v>0.047</v>
+        <v>0.232</v>
       </c>
       <c r="AH33">
-        <v>0.02011125374411639</v>
+        <v>0.2281219272369715</v>
       </c>
       <c r="AI33">
-        <v>0.01952638138761944</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="AJ33">
-        <v>0.02011125374411639</v>
+        <v>0.2281219272369715</v>
       </c>
       <c r="AK33">
-        <v>0.01952638138761944</v>
+        <v>0.7483870967741936</v>
       </c>
       <c r="AL33">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="AM33">
-        <v>0.027</v>
+        <v>0.013</v>
       </c>
       <c r="AN33">
-        <v>-0.2043478260869565</v>
+        <v>-0.464</v>
       </c>
       <c r="AO33">
-        <v>-6.179487179487179</v>
+        <v>-16.60606060606061</v>
       </c>
       <c r="AP33">
-        <v>-0.2043478260869565</v>
+        <v>-0.464</v>
       </c>
       <c r="AQ33">
-        <v>-8.925925925925926</v>
+        <v>-42.15384615384615</v>
       </c>
     </row>
     <row r="34">
@@ -4627,7 +4561,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SETANTA Alternatywna Spólka Inwestycyjna Spólka Akcyjna (WSE:SET)</t>
+          <t>Shockwork Games S.A. (WSE:SWK)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4635,26 +4569,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E34">
-        <v>0.242</v>
+      <c r="D34">
+        <v>0.247</v>
       </c>
       <c r="G34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1.442857142857143</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1.442857142857143</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0.282</v>
+        <v>0.058</v>
       </c>
       <c r="L34">
-        <v>-4.028571428571428</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4678,67 +4612,67 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0.0001584786053882726</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-0.7855153203342617</v>
+        <v>-0.7160493827160493</v>
       </c>
       <c r="X34">
-        <v>0.05258597775279079</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="Y34">
-        <v>-0.8381012980870526</v>
+        <v>-0.7558095278402297</v>
       </c>
       <c r="Z34">
-        <v>-2.187499999999998</v>
+        <v>-11.99999999999999</v>
       </c>
       <c r="AA34">
-        <v>-3.156249999999997</v>
+        <v>-11.99999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.0525094762637359</v>
+        <v>0.03976014512418032</v>
       </c>
       <c r="AC34">
-        <v>-3.208759476263733</v>
+        <v>-12.03976014512418</v>
       </c>
       <c r="AD34">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>0.008485229415461974</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>9.000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.008329404369008329</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>0.003</v>
       </c>
       <c r="AM34">
-        <v>-0.349</v>
+        <v>0.003</v>
       </c>
       <c r="AO34">
-        <v>-33.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="AQ34">
-        <v>0.2893982808022923</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -4749,7 +4683,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hydropress SE (WSE:AER)</t>
+          <t>Skarbiec Holding S.A. (WSE:SKH)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4758,100 +4692,457 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.637</v>
+        <v>0.06909999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.251</v>
       </c>
       <c r="G35">
-        <v>0.01272727272727273</v>
+        <v>0.2934131736526946</v>
       </c>
       <c r="H35">
-        <v>0.01272727272727273</v>
+        <v>0.2934131736526946</v>
       </c>
       <c r="I35">
-        <v>-0.02454545454545454</v>
+        <v>0.4940119760479042</v>
       </c>
       <c r="J35">
-        <v>-0.02454545454545454</v>
+        <v>0.3964218801660483</v>
       </c>
       <c r="K35">
-        <v>-0.489</v>
+        <v>13.1</v>
       </c>
       <c r="L35">
-        <v>-0.2222727272727273</v>
+        <v>0.3922155688622754</v>
       </c>
       <c r="M35">
-        <v>-0</v>
+        <v>0.883</v>
       </c>
       <c r="N35">
-        <v>-0</v>
+        <v>0.01903017241379311</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06740458015267176</v>
       </c>
       <c r="P35">
-        <v>-0</v>
+        <v>0.883</v>
       </c>
       <c r="Q35">
-        <v>-0</v>
+        <v>0.01903017241379311</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>0.06740458015267176</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="U35">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="W35">
+        <v>0.4924812030075187</v>
       </c>
       <c r="X35">
-        <v>0.05894000711420636</v>
+        <v>0.04043013702318331</v>
+      </c>
+      <c r="Y35">
+        <v>0.4520510659843354</v>
+      </c>
+      <c r="Z35">
+        <v>-58.59649122807033</v>
+      </c>
+      <c r="AA35">
+        <v>-23.228931223765</v>
       </c>
       <c r="AB35">
-        <v>0.05452648708486024</v>
+        <v>0.03993290879586476</v>
+      </c>
+      <c r="AC35">
+        <v>-23.26886413256086</v>
       </c>
       <c r="AD35">
-        <v>0.139</v>
+        <v>1.26</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0.139</v>
+        <v>1.26</v>
       </c>
       <c r="AG35">
-        <v>0.139</v>
+        <v>-21.94</v>
       </c>
       <c r="AH35">
-        <v>0.1968838526912182</v>
+        <v>0.02643726395300042</v>
       </c>
       <c r="AI35">
-        <v>0.1169049621530698</v>
+        <v>0.03068679980516318</v>
       </c>
       <c r="AJ35">
-        <v>0.1968838526912182</v>
+        <v>-0.8969746524938674</v>
       </c>
       <c r="AK35">
-        <v>0.1169049621530698</v>
+        <v>-1.228443449048152</v>
       </c>
       <c r="AL35">
-        <v>0.018</v>
+        <v>0.038</v>
       </c>
       <c r="AM35">
-        <v>0.014</v>
+        <v>-0.125</v>
       </c>
       <c r="AN35">
-        <v>-4.793103448275862</v>
+        <v>0.07544910179640719</v>
       </c>
       <c r="AO35">
-        <v>-3</v>
+        <v>434.2105263157895</v>
       </c>
       <c r="AP35">
-        <v>-4.793103448275862</v>
+        <v>-1.31377245508982</v>
       </c>
       <c r="AQ35">
-        <v>-3.857142857142858</v>
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GO Towarzystwo Funduszy Inwestycyjnych S.A. (WSE:GTF)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>-0.0261</v>
+      </c>
+      <c r="G36">
+        <v>-0.5685279187817259</v>
+      </c>
+      <c r="H36">
+        <v>-0.5685279187817259</v>
+      </c>
+      <c r="I36">
+        <v>-0.9289340101522843</v>
+      </c>
+      <c r="J36">
+        <v>-0.9289340101522843</v>
+      </c>
+      <c r="K36">
+        <v>-1.67</v>
+      </c>
+      <c r="L36">
+        <v>-0.8477157360406091</v>
+      </c>
+      <c r="M36">
+        <v>-0</v>
+      </c>
+      <c r="N36">
+        <v>-0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>-0</v>
+      </c>
+      <c r="Q36">
+        <v>-0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1.54</v>
+      </c>
+      <c r="V36">
+        <v>1.495145631067961</v>
+      </c>
+      <c r="W36">
+        <v>-0.3995215311004785</v>
+      </c>
+      <c r="X36">
+        <v>0.04007154835540131</v>
+      </c>
+      <c r="Y36">
+        <v>-0.4395930794558798</v>
+      </c>
+      <c r="Z36">
+        <v>28.55072463768118</v>
+      </c>
+      <c r="AA36">
+        <v>-26.5217391304348</v>
+      </c>
+      <c r="AB36">
+        <v>0.03995042940768961</v>
+      </c>
+      <c r="AC36">
+        <v>-26.56168955984249</v>
+      </c>
+      <c r="AD36">
+        <v>0.013</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0.013</v>
+      </c>
+      <c r="AG36">
+        <v>-1.527</v>
+      </c>
+      <c r="AH36">
+        <v>0.012464046021093</v>
+      </c>
+      <c r="AI36">
+        <v>-0.09285714285714286</v>
+      </c>
+      <c r="AJ36">
+        <v>3.072434607645875</v>
+      </c>
+      <c r="AK36">
+        <v>0.9089285714285714</v>
+      </c>
+      <c r="AL36">
+        <v>0.001</v>
+      </c>
+      <c r="AM36">
+        <v>-0.018</v>
+      </c>
+      <c r="AN36">
+        <v>-0.007142857142857143</v>
+      </c>
+      <c r="AO36">
+        <v>-1830</v>
+      </c>
+      <c r="AP36">
+        <v>0.839010989010989</v>
+      </c>
+      <c r="AQ36">
+        <v>101.6666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Centurion Finance Spólka Akcyjna (WSE:CTF)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K37">
+        <v>0.298</v>
+      </c>
+      <c r="M37">
+        <v>-0</v>
+      </c>
+      <c r="N37">
+        <v>-0</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-0</v>
+      </c>
+      <c r="Q37">
+        <v>-0</v>
+      </c>
+      <c r="R37">
+        <v>-0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0.099</v>
+      </c>
+      <c r="V37">
+        <v>0.002124463519313305</v>
+      </c>
+      <c r="X37">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="AB37">
+        <v>0.03976014512418032</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>-0.099</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>-0.002128986473409174</v>
+      </c>
+      <c r="AK37">
+        <v>-0.05686387133831131</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>-0.082</v>
+      </c>
+      <c r="AN37">
+        <v>-0</v>
+      </c>
+      <c r="AP37">
+        <v>3.807692307692308</v>
+      </c>
+      <c r="AQ37">
+        <v>0.3414634146341463</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Invista S.A. (WSE:INV)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>-0.024</v>
+      </c>
+      <c r="G38">
+        <v>-10.0625</v>
+      </c>
+      <c r="H38">
+        <v>-10.0625</v>
+      </c>
+      <c r="I38">
+        <v>-1.9625</v>
+      </c>
+      <c r="J38">
+        <v>-1.9625</v>
+      </c>
+      <c r="K38">
+        <v>-1.2</v>
+      </c>
+      <c r="L38">
+        <v>-7.5</v>
+      </c>
+      <c r="M38">
+        <v>0.064</v>
+      </c>
+      <c r="N38">
+        <v>0.06336633663366337</v>
+      </c>
+      <c r="O38">
+        <v>-0.05333333333333334</v>
+      </c>
+      <c r="P38">
+        <v>-0</v>
+      </c>
+      <c r="Q38">
+        <v>-0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0.064</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0.01</v>
+      </c>
+      <c r="V38">
+        <v>0.009900990099009901</v>
+      </c>
+      <c r="X38">
+        <v>0.05966931819717798</v>
+      </c>
+      <c r="AB38">
+        <v>0.04506584176382863</v>
+      </c>
+      <c r="AD38">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="AG38">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="AH38">
+        <v>0.4465753424657534</v>
+      </c>
+      <c r="AI38">
+        <v>0.2130718954248366</v>
+      </c>
+      <c r="AJ38">
+        <v>0.4435261707988981</v>
+      </c>
+      <c r="AK38">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="AL38">
+        <v>0.128</v>
+      </c>
+      <c r="AM38">
+        <v>0.128</v>
+      </c>
+      <c r="AN38">
+        <v>-2.620578778135048</v>
+      </c>
+      <c r="AO38">
+        <v>-2.453125</v>
+      </c>
+      <c r="AP38">
+        <v>-2.588424437299035</v>
+      </c>
+      <c r="AQ38">
+        <v>-2.453125</v>
       </c>
     </row>
   </sheetData>
